--- a/Instances/07_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
+++ b/Instances/07_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -5352,7 +5352,7 @@
         <v>61.43880000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>48.612</v>
+        <v>32.408</v>
       </c>
       <c r="F2" t="n">
         <v>245.7552000000001</v>
@@ -5386,7 +5386,7 @@
         <v>60.18840000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>26.232</v>
+        <v>39.34800000000001</v>
       </c>
       <c r="F3" t="n">
         <v>240.7536</v>
@@ -5454,7 +5454,7 @@
         <v>61.0852</v>
       </c>
       <c r="E5" t="n">
-        <v>30.512</v>
+        <v>15.256</v>
       </c>
       <c r="F5" t="n">
         <v>244.3408</v>
@@ -5522,7 +5522,7 @@
         <v>61.0732</v>
       </c>
       <c r="E7" t="n">
-        <v>15.5616</v>
+        <v>31.1232</v>
       </c>
       <c r="F7" t="n">
         <v>244.2928</v>
@@ -5624,7 +5624,7 @@
         <v>1.8784</v>
       </c>
       <c r="E10" t="n">
-        <v>11.2704</v>
+        <v>7.5136</v>
       </c>
       <c r="F10" t="n">
         <v>7.5136</v>
@@ -5658,7 +5658,7 @@
         <v>1.7124</v>
       </c>
       <c r="E11" t="n">
-        <v>6.849600000000001</v>
+        <v>10.2744</v>
       </c>
       <c r="F11" t="n">
         <v>6.849600000000001</v>
@@ -5692,7 +5692,7 @@
         <v>3.218</v>
       </c>
       <c r="E12" t="n">
-        <v>32.18</v>
+        <v>25.744</v>
       </c>
       <c r="F12" t="n">
         <v>12.872</v>
@@ -5726,7 +5726,7 @@
         <v>3.5196</v>
       </c>
       <c r="E13" t="n">
-        <v>35.196</v>
+        <v>42.2352</v>
       </c>
       <c r="F13" t="n">
         <v>14.0784</v>
@@ -5992,13 +5992,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>61.77840000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>2.0376</v>
+        <v>1.3584</v>
       </c>
       <c r="F21" t="n">
         <v>247.1136</v>
@@ -6026,13 +6026,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>60.47880000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>1.1616</v>
+        <v>1.7424</v>
       </c>
       <c r="F22" t="n">
         <v>241.9152</v>
@@ -6094,13 +6094,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>61.4944</v>
       </c>
       <c r="E24" t="n">
-        <v>1.6368</v>
+        <v>0.8184</v>
       </c>
       <c r="F24" t="n">
         <v>245.9776</v>
@@ -6128,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>61.9912</v>
@@ -6162,13 +6162,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>61.3652</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5840000000000001</v>
+        <v>1.168</v>
       </c>
       <c r="F26" t="n">
         <v>245.4608</v>
@@ -6196,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D27" t="n">
         <v>0.4756</v>
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
         <v>2.1084</v>
@@ -6264,13 +6264,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>1.9352</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3408</v>
+        <v>0.2272</v>
       </c>
       <c r="F29" t="n">
         <v>7.7408</v>
@@ -6298,13 +6298,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>1.7704</v>
       </c>
       <c r="E30" t="n">
-        <v>0.232</v>
+        <v>0.348</v>
       </c>
       <c r="F30" t="n">
         <v>7.081600000000001</v>
@@ -6332,13 +6332,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>3.2732</v>
       </c>
       <c r="E31" t="n">
-        <v>0.552</v>
+        <v>0.4416</v>
       </c>
       <c r="F31" t="n">
         <v>13.0928</v>
@@ -6366,13 +6366,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>3.5668</v>
       </c>
       <c r="E32" t="n">
-        <v>0.472</v>
+        <v>0.5664</v>
       </c>
       <c r="F32" t="n">
         <v>14.2672</v>
@@ -6400,7 +6400,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D33" t="n">
         <v>9.805199999999999</v>
@@ -6434,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D34" t="n">
         <v>4.1272</v>
@@ -6468,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D35" t="n">
         <v>4.5076</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D36" t="n">
         <v>4.6092</v>
@@ -6536,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D37" t="n">
         <v>4.5216</v>
@@ -6570,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D38" t="n">
         <v>4.850000000000001</v>
@@ -6604,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D39" t="n">
         <v>15.0588</v>
@@ -6639,7 +6639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6901,10 +6901,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -6913,10 +6913,10 @@
         <v>2</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -7020,19 +7020,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -7139,22 +7139,22 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -7261,19 +7261,19 @@
         <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -7377,60 +7377,536 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="V6" t="n">
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>2</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>2</v>
       </c>
-      <c r="X6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
+      <c r="V8" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7445,7 +7921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7707,10 +8183,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -7719,10 +8195,10 @@
         <v>0.25</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -7826,19 +8302,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="W3" t="n">
         <v>0.1875</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -7945,22 +8421,22 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.21875</v>
       </c>
-      <c r="V4" t="n">
-        <v>0.4375</v>
-      </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.21875</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.21875</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.21875</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -8067,19 +8543,19 @@
         <v>0.703125</v>
       </c>
       <c r="V5" t="n">
-        <v>0.703125</v>
+        <v>0.46875</v>
       </c>
       <c r="W5" t="n">
-        <v>0.46875</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.46875</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>0.234375</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -8183,13 +8659,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.2109375</v>
+        <v>0.484375</v>
       </c>
       <c r="V6" t="n">
-        <v>0.484375</v>
+        <v>0.2421875</v>
       </c>
       <c r="W6" t="n">
-        <v>0.484375</v>
+        <v>0.2421875</v>
       </c>
       <c r="X6" t="n">
         <v>0.2421875</v>
@@ -8198,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2421875</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -8237,6 +8713,482 @@
         <v>0</v>
       </c>
       <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.4921875</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.24609375</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.24609375</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.24609375</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.49609375</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.49609375</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.248046875</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.248046875</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.498046875</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.498046875</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.24951171875</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.24951171875</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.24951171875</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.4990234375</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8269,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -8277,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -8285,7 +9237,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2180.6</v>
+        <v>990</v>
       </c>
     </row>
     <row r="5">
@@ -8293,7 +9245,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2177.28</v>
+        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -8339,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -8358,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8377,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8396,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -8415,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8434,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8459,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -8478,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>10.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -8497,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>10.19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -8516,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -8535,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -8554,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>8.539999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -8573,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -8592,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -8611,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -8630,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -8649,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -8668,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -8687,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -8697,7 +9649,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -8716,7 +9668,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -8735,7 +9687,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -8754,7 +9706,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -8773,7 +9725,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -8792,7 +9744,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -8817,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -8836,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -8855,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -8874,7 +9826,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -8893,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -8912,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -8931,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -8950,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>6.66</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -8969,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>8.9</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -8988,7 +9940,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -9007,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>7.74</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -9026,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>8.710000000000001</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -9045,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>7.32</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
